--- a/Model_Output_Summary.xlsx
+++ b/Model_Output_Summary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
   <si>
     <t>model</t>
   </si>
@@ -30,13 +30,7 @@
     <t>Recall</t>
   </si>
   <si>
-    <t>PRC Area(True)</t>
-  </si>
-  <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>PRC Area (False)</t>
   </si>
   <si>
     <t>TN (aa)</t>
@@ -77,10 +71,6 @@
   <si>
     <t>FP
 (FP Rate true)</t>
-  </si>
-  <si>
-    <t>PRC Area
-(Weighed Average)</t>
   </si>
   <si>
     <t>naiveBayes</t>
@@ -177,6 +167,61 @@
   </si>
   <si>
     <t>adaBoost</t>
+  </si>
+  <si>
+    <t>logitBoost</t>
+  </si>
+  <si>
+    <t>standard roc</t>
+  </si>
+  <si>
+    <t>J48</t>
+  </si>
+  <si>
+    <t>J48 roc</t>
+  </si>
+  <si>
+    <t>decisionStump 100</t>
+  </si>
+  <si>
+    <t>PRC Area 
+(False)</t>
+  </si>
+  <si>
+    <t>PRC Area
+(True)</t>
+  </si>
+  <si>
+    <t>PRC Area
+(Weighed 
+Average)</t>
+  </si>
+  <si>
+    <t>adaBoostM1</t>
+  </si>
+  <si>
+    <t>adaboostM1</t>
+  </si>
+  <si>
+    <t>RandomForest</t>
+  </si>
+  <si>
+    <t>REPTree</t>
+  </si>
+  <si>
+    <t>adaboostM2</t>
+  </si>
+  <si>
+    <t>adaboostM3</t>
+  </si>
+  <si>
+    <t>adaboostM4</t>
+  </si>
+  <si>
+    <t>out of memory</t>
+  </si>
+  <si>
+    <t>decision table</t>
   </si>
 </sst>
 </file>
@@ -192,7 +237,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +262,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -230,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -242,6 +299,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -278,7 +337,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16821150" y="571500"/>
+          <a:off x="15449550" y="571500"/>
           <a:ext cx="2152381" cy="1571556"/>
           <a:chOff x="16821150" y="571500"/>
           <a:chExt cx="2152381" cy="1571556"/>
@@ -623,11 +682,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26:N28"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,15 +704,14 @@
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -662,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" t="s">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s">
         <v>2</v>
@@ -710,7 +768,7 @@
         <v>3</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -718,10 +776,10 @@
         <v>41253</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>90.060599999999994</v>
@@ -780,10 +838,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>90.0822</v>
@@ -842,10 +900,10 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>75.691100000000006</v>
@@ -904,10 +962,10 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" s="5">
         <v>90.066100000000006</v>
@@ -966,10 +1024,10 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>87.672300000000007</v>
@@ -1028,10 +1086,10 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>76.029700000000005</v>
@@ -1090,7 +1148,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>77.856499999999997</v>
@@ -1149,10 +1207,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>80.925399999999996</v>
@@ -1211,10 +1269,10 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>79.105800000000002</v>
@@ -1273,10 +1331,10 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>75.576499999999996</v>
@@ -1335,10 +1393,10 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>69.162700000000001</v>
@@ -1397,10 +1455,10 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>89.486599999999996</v>
@@ -1459,10 +1517,10 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>90.040099999999995</v>
@@ -1521,10 +1579,10 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15">
         <v>70.168400000000005</v>
@@ -1569,7 +1627,7 @@
         <v>0.83799999999999997</v>
       </c>
       <c r="R15">
-        <f t="shared" ref="R15:R26" si="5">M15/(M15+K15)</f>
+        <f t="shared" ref="R15:R24" si="5">M15/(M15+K15)</f>
         <v>0.22446167097329889</v>
       </c>
       <c r="S15">
@@ -1583,10 +1641,10 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>57.880600000000001</v>
@@ -1645,10 +1703,10 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D17">
         <v>18.304300000000001</v>
@@ -1707,10 +1765,10 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D18">
         <v>90.079899999999995</v>
@@ -1769,10 +1827,10 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D19">
         <v>69.983400000000003</v>
@@ -1831,10 +1889,10 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D20">
         <v>77.856499999999997</v>
@@ -1893,10 +1951,10 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D21">
         <v>75.153099999999995</v>
@@ -1955,10 +2013,10 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D22">
         <v>70.976799999999997</v>
@@ -2017,10 +2075,10 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D23">
         <v>63.877899999999997</v>
@@ -2082,10 +2140,10 @@
         <v>41254</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J24">
         <v>2095</v>
@@ -2114,10 +2172,10 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
         <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
       </c>
       <c r="R25">
         <v>0.35580000000000001</v>
@@ -2132,10 +2190,10 @@
     </row>
     <row r="26" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D26" s="6">
         <v>68.084299999999999</v>
@@ -2194,10 +2252,10 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D27" s="6">
         <v>63.453099999999999</v>
@@ -2233,10 +2291,10 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -2249,6 +2307,1128 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>41255</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>76.615200000000002</v>
+      </c>
+      <c r="E29">
+        <v>23.384799999999998</v>
+      </c>
+      <c r="F29">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G29">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.189</v>
+      </c>
+      <c r="J29">
+        <v>16353</v>
+      </c>
+      <c r="K29">
+        <v>3814</v>
+      </c>
+      <c r="L29">
+        <v>1561</v>
+      </c>
+      <c r="M29">
+        <v>1257</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="O29">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="P29">
+        <v>0.252</v>
+      </c>
+      <c r="Q29">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="R29">
+        <f t="shared" ref="R29:R56" si="8">M29/(M29+K29)</f>
+        <v>0.24788010254387693</v>
+      </c>
+      <c r="S29">
+        <f t="shared" ref="S29:S56" si="9">M29/(M29+L29)</f>
+        <v>0.44606103619588361</v>
+      </c>
+      <c r="T29" s="3">
+        <f t="shared" ref="T29:T56" si="10">2*R29*S29/(R29+S29)</f>
+        <v>0.31867156800608443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>89.410499999999999</v>
+      </c>
+      <c r="E30">
+        <v>10.589499999999999</v>
+      </c>
+      <c r="F30">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G30">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="J30">
+        <v>19892</v>
+      </c>
+      <c r="K30">
+        <v>275</v>
+      </c>
+      <c r="L30">
+        <v>2159</v>
+      </c>
+      <c r="M30">
+        <v>659</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.746</v>
+      </c>
+      <c r="O30">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="P30">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="Q30">
+        <v>0.876</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="8"/>
+        <v>0.70556745182012848</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="9"/>
+        <v>0.23385379701916253</v>
+      </c>
+      <c r="T30" s="3">
+        <f t="shared" si="10"/>
+        <v>0.3512793176972282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31">
+        <v>85.238200000000006</v>
+      </c>
+      <c r="E31">
+        <v>14.761799999999999</v>
+      </c>
+      <c r="F31">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="G31">
+        <v>0.31</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="I31" s="3">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J31">
+        <v>18719</v>
+      </c>
+      <c r="K31">
+        <v>1448</v>
+      </c>
+      <c r="L31">
+        <v>1945</v>
+      </c>
+      <c r="M31">
+        <v>873</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="O31">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="P31">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="Q31">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="8"/>
+        <v>0.37613097802671264</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="9"/>
+        <v>0.3097941802696948</v>
+      </c>
+      <c r="T31" s="3">
+        <f t="shared" si="10"/>
+        <v>0.33975481611208408</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32">
+        <v>90.123999999999995</v>
+      </c>
+      <c r="E32">
+        <v>9.8759999999999994</v>
+      </c>
+      <c r="F32">
+        <v>0.996</v>
+      </c>
+      <c r="G32">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="I32" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J32">
+        <v>20080</v>
+      </c>
+      <c r="K32">
+        <v>87</v>
+      </c>
+      <c r="L32">
+        <v>2183</v>
+      </c>
+      <c r="M32">
+        <v>635</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="O32">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="P32">
+        <v>0.41</v>
+      </c>
+      <c r="Q32">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="8"/>
+        <v>0.87950138504155129</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="9"/>
+        <v>0.22533711852377572</v>
+      </c>
+      <c r="T32" s="3">
+        <f t="shared" si="10"/>
+        <v>0.35875706214689268</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>87.3352</v>
+      </c>
+      <c r="E33">
+        <v>12.6648</v>
+      </c>
+      <c r="F33">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G33">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="I33" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J33">
+        <v>19998</v>
+      </c>
+      <c r="K33">
+        <v>169</v>
+      </c>
+      <c r="L33">
+        <v>2742</v>
+      </c>
+      <c r="M33">
+        <v>76</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="O33">
+        <v>0.879</v>
+      </c>
+      <c r="P33">
+        <v>0.128</v>
+      </c>
+      <c r="Q33">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="8"/>
+        <v>0.31020408163265306</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="9"/>
+        <v>2.6969481902058199E-2</v>
+      </c>
+      <c r="T33" s="3">
+        <f t="shared" si="10"/>
+        <v>4.9624551093698989E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>89.884699999999995</v>
+      </c>
+      <c r="E34">
+        <v>10.1153</v>
+      </c>
+      <c r="F34">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G34">
+        <v>0.23</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="I34" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J34">
+        <v>20011</v>
+      </c>
+      <c r="K34">
+        <v>156</v>
+      </c>
+      <c r="L34">
+        <v>2169</v>
+      </c>
+      <c r="M34">
+        <v>649</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="O34">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="P34">
+        <v>0.434</v>
+      </c>
+      <c r="Q34">
+        <v>0.877</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="8"/>
+        <v>0.80621118012422355</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="9"/>
+        <v>0.23030518097941802</v>
+      </c>
+      <c r="T34" s="3">
+        <f t="shared" si="10"/>
+        <v>0.35826662986475288</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35">
+        <v>87.974800000000002</v>
+      </c>
+      <c r="E35">
+        <v>12.0252</v>
+      </c>
+      <c r="F35">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="G35">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J35">
+        <v>19720</v>
+      </c>
+      <c r="K35">
+        <v>447</v>
+      </c>
+      <c r="L35">
+        <v>2317</v>
+      </c>
+      <c r="M35">
+        <v>501</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="O35">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="P35">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="Q35">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="8"/>
+        <v>0.52848101265822789</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="9"/>
+        <v>0.17778566359119943</v>
+      </c>
+      <c r="T35" s="3">
+        <f t="shared" si="10"/>
+        <v>0.26606479022835905</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36">
+        <v>89.545400000000001</v>
+      </c>
+      <c r="E36">
+        <v>10.454599999999999</v>
+      </c>
+      <c r="F36">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="G36">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="H36" s="3">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J36">
+        <v>19895</v>
+      </c>
+      <c r="K36">
+        <v>272</v>
+      </c>
+      <c r="L36">
+        <v>2131</v>
+      </c>
+      <c r="M36">
+        <v>687</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="O36">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="P36">
+        <v>0.436</v>
+      </c>
+      <c r="Q36">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="8"/>
+        <v>0.71637122002085507</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="9"/>
+        <v>0.24378992193044713</v>
+      </c>
+      <c r="T36" s="3">
+        <f t="shared" si="10"/>
+        <v>0.36378077839555201</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37">
+        <v>87.069800000000001</v>
+      </c>
+      <c r="E37">
+        <v>12.930199999999999</v>
+      </c>
+      <c r="F37">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="G37">
+        <v>0.217</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="I37" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J37">
+        <v>19402</v>
+      </c>
+      <c r="K37">
+        <v>765</v>
+      </c>
+      <c r="L37">
+        <v>2207</v>
+      </c>
+      <c r="M37">
+        <v>611</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="O37">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="P37">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="Q37">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="8"/>
+        <v>0.44404069767441862</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="9"/>
+        <v>0.21682044002838893</v>
+      </c>
+      <c r="T37" s="3">
+        <f t="shared" si="10"/>
+        <v>0.29136862184072487</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <v>89.510599999999997</v>
+      </c>
+      <c r="E38">
+        <v>10.4894</v>
+      </c>
+      <c r="F38">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="G38">
+        <v>0.251</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0.749</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J38">
+        <v>19866</v>
+      </c>
+      <c r="K38">
+        <v>301</v>
+      </c>
+      <c r="L38">
+        <v>2110</v>
+      </c>
+      <c r="M38">
+        <v>708</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="O38">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="P38">
+        <v>0.34</v>
+      </c>
+      <c r="Q38">
+        <v>0.86</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="8"/>
+        <v>0.70168483647175417</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="9"/>
+        <v>0.25124201561391057</v>
+      </c>
+      <c r="T38" s="3">
+        <f t="shared" si="10"/>
+        <v>0.37000261301280379</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39">
+        <v>90.110900000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="7"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="7"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B46" s="7"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B47" s="7"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B49" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>67.483099999999993</v>
+      </c>
+      <c r="E49">
+        <v>32.5169</v>
+      </c>
+      <c r="F49">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="G49">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0.315</v>
+      </c>
+      <c r="J49">
+        <v>13817</v>
+      </c>
+      <c r="K49">
+        <v>6350</v>
+      </c>
+      <c r="L49">
+        <v>1124</v>
+      </c>
+      <c r="M49">
+        <v>1694</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="O49">
+        <v>0.94</v>
+      </c>
+      <c r="P49">
+        <v>0.254</v>
+      </c>
+      <c r="Q49">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="8"/>
+        <v>0.21059174540029835</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="9"/>
+        <v>0.60113555713271827</v>
+      </c>
+      <c r="T49" s="3">
+        <f t="shared" si="10"/>
+        <v>0.31191309151169211</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50">
+        <v>66.456400000000002</v>
+      </c>
+      <c r="E50">
+        <v>33.543599999999998</v>
+      </c>
+      <c r="F50">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="G50">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="H50" s="3">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="J50">
+        <v>13356</v>
+      </c>
+      <c r="K50">
+        <v>6811</v>
+      </c>
+      <c r="L50">
+        <v>899</v>
+      </c>
+      <c r="M50">
+        <v>1919</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0.745</v>
+      </c>
+      <c r="O50">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="P50">
+        <v>0.38</v>
+      </c>
+      <c r="Q50">
+        <v>0.874</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="8"/>
+        <v>0.21981672394043528</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="9"/>
+        <v>0.68097941802696949</v>
+      </c>
+      <c r="T50" s="3">
+        <f t="shared" si="10"/>
+        <v>0.33235192241080708</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51">
+        <v>63.2151</v>
+      </c>
+      <c r="E51">
+        <v>36.7849</v>
+      </c>
+      <c r="F51">
+        <v>0.624</v>
+      </c>
+      <c r="G51">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0.307</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0.376</v>
+      </c>
+      <c r="J51">
+        <v>12576</v>
+      </c>
+      <c r="K51">
+        <v>7591</v>
+      </c>
+      <c r="L51">
+        <v>864</v>
+      </c>
+      <c r="M51">
+        <v>1954</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="O51">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="P51">
+        <v>0.34</v>
+      </c>
+      <c r="Q51">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="8"/>
+        <v>0.20471451021477213</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="9"/>
+        <v>0.69339957416607523</v>
+      </c>
+      <c r="T51" s="3">
+        <f t="shared" si="10"/>
+        <v>0.31610450537895329</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B52" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52">
+        <v>84.698700000000002</v>
+      </c>
+      <c r="E52">
+        <v>15.301299999999999</v>
+      </c>
+      <c r="F52">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="G52">
+        <v>0.318</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="I52" s="3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="J52">
+        <v>18572</v>
+      </c>
+      <c r="K52">
+        <v>1595</v>
+      </c>
+      <c r="L52">
+        <v>1922</v>
+      </c>
+      <c r="M52">
+        <v>896</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="O52">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="P52">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="Q52">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="8"/>
+        <v>0.35969490164592532</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="9"/>
+        <v>0.31795599716110717</v>
+      </c>
+      <c r="T52" s="3">
+        <f t="shared" si="10"/>
+        <v>0.33754002637031455</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54">
+        <v>79.821600000000004</v>
+      </c>
+      <c r="E54">
+        <v>20.1784</v>
+      </c>
+      <c r="F54">
+        <v>0.879</v>
+      </c>
+      <c r="G54">
+        <v>0.221</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.121</v>
+      </c>
+      <c r="J54">
+        <v>17723</v>
+      </c>
+      <c r="K54">
+        <v>2444</v>
+      </c>
+      <c r="L54">
+        <v>2194</v>
+      </c>
+      <c r="M54">
+        <v>624</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="O54">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="P54">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="Q54">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="8"/>
+        <v>0.20338983050847459</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="9"/>
+        <v>0.22143364088005676</v>
+      </c>
+      <c r="T54" s="3">
+        <f t="shared" si="10"/>
+        <v>0.21202854230377166</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B55" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55">
+        <v>73.365200000000002</v>
+      </c>
+      <c r="E55">
+        <v>26.634799999999998</v>
+      </c>
+      <c r="F55">
+        <v>0.749</v>
+      </c>
+      <c r="G55">
+        <v>0.624</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0.376</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0.251</v>
+      </c>
+      <c r="J55">
+        <v>15105</v>
+      </c>
+      <c r="K55">
+        <v>5062</v>
+      </c>
+      <c r="L55">
+        <v>1060</v>
+      </c>
+      <c r="M55">
+        <v>1758</v>
+      </c>
+      <c r="N55" s="3">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="O55">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="P55">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="Q55">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="8"/>
+        <v>0.25777126099706743</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="9"/>
+        <v>0.62384669978708307</v>
+      </c>
+      <c r="T55" s="3">
+        <f t="shared" si="10"/>
+        <v>0.3648059763436397</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B56" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56">
+        <v>81.474900000000005</v>
+      </c>
+      <c r="E56">
+        <v>18.525099999999998</v>
+      </c>
+      <c r="F56">
+        <v>0.877</v>
+      </c>
+      <c r="G56">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0.123</v>
+      </c>
+      <c r="J56">
+        <v>17691</v>
+      </c>
+      <c r="K56">
+        <v>2476</v>
+      </c>
+      <c r="L56">
+        <v>1782</v>
+      </c>
+      <c r="M56">
+        <v>1036</v>
+      </c>
+      <c r="N56" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="O56">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="P56">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="Q56">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="8"/>
+        <v>0.29498861047835989</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="9"/>
+        <v>0.36763662171753014</v>
+      </c>
+      <c r="T56" s="3">
+        <f t="shared" si="10"/>
+        <v>0.32733017377567136</v>
+      </c>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B57" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:O3">

--- a/Model_Output_Summary.xlsx
+++ b/Model_Output_Summary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="68">
   <si>
     <t>model</t>
   </si>
@@ -222,16 +222,35 @@
   </si>
   <si>
     <t>decision table</t>
+  </si>
+  <si>
+    <t>comparable results in matlab</t>
+  </si>
+  <si>
+    <t>"@0.2 Threshold"</t>
+  </si>
+  <si>
+    <t>unbalanced data</t>
+  </si>
+  <si>
+    <t>balanced data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -287,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -301,6 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,7 +357,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15449550" y="571500"/>
+          <a:off x="16544925" y="571500"/>
           <a:ext cx="2152381" cy="1571556"/>
           <a:chOff x="16821150" y="571500"/>
           <a:chExt cx="2152381" cy="1571556"/>
@@ -682,16 +702,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T58"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40:XFD40"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -2361,15 +2381,15 @@
         <v>0.85599999999999998</v>
       </c>
       <c r="R29">
-        <f t="shared" ref="R29:R56" si="8">M29/(M29+K29)</f>
+        <f t="shared" ref="R29:R51" si="8">M29/(M29+K29)</f>
         <v>0.24788010254387693</v>
       </c>
       <c r="S29">
-        <f t="shared" ref="S29:S56" si="9">M29/(M29+L29)</f>
+        <f t="shared" ref="S29:S51" si="9">M29/(M29+L29)</f>
         <v>0.44606103619588361</v>
       </c>
       <c r="T29" s="3">
-        <f t="shared" ref="T29:T56" si="10">2*R29*S29/(R29+S29)</f>
+        <f t="shared" ref="T29:T48" si="10">2*R29*S29/(R29+S29)</f>
         <v>0.31867156800608443</v>
       </c>
     </row>
@@ -2559,7 +2579,7 @@
         <v>0.35875706214689268</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>18</v>
       </c>
@@ -2621,7 +2641,7 @@
         <v>4.9624551093698989E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>11</v>
       </c>
@@ -2683,7 +2703,7 @@
         <v>0.35826662986475288</v>
       </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>55</v>
       </c>
@@ -2745,7 +2765,7 @@
         <v>0.26606479022835905</v>
       </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>47</v>
       </c>
@@ -2807,7 +2827,7 @@
         <v>0.36378077839555201</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>55</v>
       </c>
@@ -2869,7 +2889,7 @@
         <v>0.29136862184072487</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>55</v>
       </c>
@@ -2919,7 +2939,7 @@
         <v>0.86</v>
       </c>
       <c r="R38">
-        <f t="shared" si="8"/>
+        <f>M38/(M38+K38)</f>
         <v>0.70168483647175417</v>
       </c>
       <c r="S38">
@@ -2927,11 +2947,11 @@
         <v>0.25124201561391057</v>
       </c>
       <c r="T38" s="3">
-        <f t="shared" si="10"/>
+        <f>2*R38*S38/(R38+S38)</f>
         <v>0.37000261301280379</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>47</v>
       </c>
@@ -2941,493 +2961,735 @@
       <c r="D39">
         <v>90.110900000000001</v>
       </c>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B40" s="7"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B41" s="7"/>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B42" s="7"/>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B43" s="7"/>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B45" s="7"/>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="7"/>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B47" s="7"/>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B48" s="7"/>
-    </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>9.8890999999999991</v>
+      </c>
+      <c r="F39">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G39">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="I39" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J39">
+        <v>20049</v>
+      </c>
+      <c r="K39">
+        <v>118</v>
+      </c>
+      <c r="L39">
+        <v>2155</v>
+      </c>
+      <c r="M39">
+        <v>663</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="O39">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="P39">
+        <v>0.47</v>
+      </c>
+      <c r="Q39">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="R39">
+        <f>M39/(M39+K39)</f>
+        <v>0.8489116517285531</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="9"/>
+        <v>0.23527324343506031</v>
+      </c>
+      <c r="T39" s="3">
+        <f>2*R39*S39/(R39+S39)</f>
+        <v>0.36843567657682685</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>66</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0.70779999999999998</v>
+      </c>
+      <c r="R40" s="9">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="S40" s="9">
+        <v>0.3513</v>
+      </c>
+      <c r="T40" s="3">
+        <f>2*R40*S40/(R40+S40)</f>
+        <v>0.3496422136422136</v>
+      </c>
+      <c r="U40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>67.483099999999993</v>
+      </c>
+      <c r="E41">
+        <v>32.5169</v>
+      </c>
+      <c r="F41">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="G41">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.315</v>
+      </c>
+      <c r="J41">
+        <v>13817</v>
+      </c>
+      <c r="K41">
+        <v>6350</v>
+      </c>
+      <c r="L41">
+        <v>1124</v>
+      </c>
+      <c r="M41">
+        <v>1694</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="O41">
+        <v>0.94</v>
+      </c>
+      <c r="P41">
+        <v>0.254</v>
+      </c>
+      <c r="Q41">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="8"/>
+        <v>0.21059174540029835</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="9"/>
+        <v>0.60113555713271827</v>
+      </c>
+      <c r="T41" s="3">
+        <f t="shared" si="10"/>
+        <v>0.31191309151169211</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42">
+        <v>66.456400000000002</v>
+      </c>
+      <c r="E42">
+        <v>33.543599999999998</v>
+      </c>
+      <c r="F42">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="G42">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="J42">
+        <v>13356</v>
+      </c>
+      <c r="K42">
+        <v>6811</v>
+      </c>
+      <c r="L42">
+        <v>899</v>
+      </c>
+      <c r="M42">
+        <v>1919</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0.745</v>
+      </c>
+      <c r="O42">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="P42">
+        <v>0.38</v>
+      </c>
+      <c r="Q42">
+        <v>0.874</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="8"/>
+        <v>0.21981672394043528</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="9"/>
+        <v>0.68097941802696949</v>
+      </c>
+      <c r="T42" s="3">
+        <f t="shared" si="10"/>
+        <v>0.33235192241080708</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43">
+        <v>63.2151</v>
+      </c>
+      <c r="E43">
+        <v>36.7849</v>
+      </c>
+      <c r="F43">
+        <v>0.624</v>
+      </c>
+      <c r="G43">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.307</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0.376</v>
+      </c>
+      <c r="J43">
+        <v>12576</v>
+      </c>
+      <c r="K43">
+        <v>7591</v>
+      </c>
+      <c r="L43">
+        <v>864</v>
+      </c>
+      <c r="M43">
+        <v>1954</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="O43">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="P43">
+        <v>0.34</v>
+      </c>
+      <c r="Q43">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="8"/>
+        <v>0.20471451021477213</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="9"/>
+        <v>0.69339957416607523</v>
+      </c>
+      <c r="T43" s="3">
+        <f t="shared" si="10"/>
+        <v>0.31610450537895329</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44">
+        <v>84.698700000000002</v>
+      </c>
+      <c r="E44">
+        <v>15.301299999999999</v>
+      </c>
+      <c r="F44">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="G44">
+        <v>0.318</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="I44" s="3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="J44">
+        <v>18572</v>
+      </c>
+      <c r="K44">
+        <v>1595</v>
+      </c>
+      <c r="L44">
+        <v>1922</v>
+      </c>
+      <c r="M44">
+        <v>896</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="O44">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="P44">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="Q44">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="8"/>
+        <v>0.35969490164592532</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="9"/>
+        <v>0.31795599716110717</v>
+      </c>
+      <c r="T44" s="3">
+        <f t="shared" si="10"/>
+        <v>0.33754002637031455</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46">
+        <v>79.821600000000004</v>
+      </c>
+      <c r="E46">
+        <v>20.1784</v>
+      </c>
+      <c r="F46">
+        <v>0.879</v>
+      </c>
+      <c r="G46">
+        <v>0.221</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0.121</v>
+      </c>
+      <c r="J46">
+        <v>17723</v>
+      </c>
+      <c r="K46">
+        <v>2444</v>
+      </c>
+      <c r="L46">
+        <v>2194</v>
+      </c>
+      <c r="M46">
+        <v>624</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="O46">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="P46">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="Q46">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="8"/>
+        <v>0.20338983050847459</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="9"/>
+        <v>0.22143364088005676</v>
+      </c>
+      <c r="T46" s="3">
+        <f t="shared" si="10"/>
+        <v>0.21202854230377166</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47">
+        <v>73.365200000000002</v>
+      </c>
+      <c r="E47">
+        <v>26.634799999999998</v>
+      </c>
+      <c r="F47">
+        <v>0.749</v>
+      </c>
+      <c r="G47">
+        <v>0.624</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0.376</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0.251</v>
+      </c>
+      <c r="J47">
+        <v>15105</v>
+      </c>
+      <c r="K47">
+        <v>5062</v>
+      </c>
+      <c r="L47">
+        <v>1060</v>
+      </c>
+      <c r="M47">
+        <v>1758</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="O47">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="P47">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="Q47">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="8"/>
+        <v>0.25777126099706743</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="9"/>
+        <v>0.62384669978708307</v>
+      </c>
+      <c r="T47" s="3">
+        <f t="shared" si="10"/>
+        <v>0.3648059763436397</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48">
+        <v>81.474900000000005</v>
+      </c>
+      <c r="E48">
+        <v>18.525099999999998</v>
+      </c>
+      <c r="F48">
+        <v>0.877</v>
+      </c>
+      <c r="G48">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0.123</v>
+      </c>
+      <c r="J48">
+        <v>17691</v>
+      </c>
+      <c r="K48">
+        <v>2476</v>
+      </c>
+      <c r="L48">
+        <v>1782</v>
+      </c>
+      <c r="M48">
+        <v>1036</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="O48">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="P48">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="Q48">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="8"/>
+        <v>0.29498861047835989</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="9"/>
+        <v>0.36763662171753014</v>
+      </c>
+      <c r="T48" s="3">
+        <f t="shared" si="10"/>
+        <v>0.32733017377567136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D49">
-        <v>67.483099999999993</v>
+        <v>83.754599999999996</v>
       </c>
       <c r="E49">
-        <v>32.5169</v>
+        <v>16.2454</v>
       </c>
       <c r="F49">
-        <v>0.68500000000000005</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="G49">
-        <v>0.60099999999999998</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="H49" s="3">
-        <v>0.39900000000000002</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="I49" s="3">
-        <v>0.315</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="J49">
-        <v>13817</v>
+        <v>18247</v>
       </c>
       <c r="K49">
-        <v>6350</v>
+        <v>1920</v>
       </c>
       <c r="L49">
-        <v>1124</v>
+        <v>1814</v>
       </c>
       <c r="M49">
-        <v>1694</v>
+        <v>1004</v>
       </c>
       <c r="N49" s="3">
-        <v>0.70499999999999996</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="O49">
-        <v>0.94</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="P49">
-        <v>0.254</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="Q49">
-        <v>0.85499999999999998</v>
+        <v>0.86</v>
       </c>
       <c r="R49">
         <f t="shared" si="8"/>
-        <v>0.21059174540029835</v>
+        <v>0.34336525307797539</v>
       </c>
       <c r="S49">
         <f t="shared" si="9"/>
-        <v>0.60113555713271827</v>
+        <v>0.35628105039034774</v>
       </c>
       <c r="T49" s="3">
-        <f t="shared" si="10"/>
-        <v>0.31191309151169211</v>
-      </c>
-    </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+        <f>2*R49*S49/(R49+S49)</f>
+        <v>0.34970393591083243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="B50" s="8" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D50">
-        <v>66.456400000000002</v>
+        <v>25.716799999999999</v>
       </c>
       <c r="E50">
-        <v>33.543599999999998</v>
+        <v>74.283199999999994</v>
       </c>
       <c r="F50">
-        <v>0.66200000000000003</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="G50">
-        <v>0.68100000000000005</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="H50" s="3">
-        <v>0.31900000000000001</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="I50" s="3">
-        <v>0.33800000000000002</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="J50">
-        <v>13356</v>
+        <v>3281</v>
       </c>
       <c r="K50">
-        <v>6811</v>
+        <v>16886</v>
       </c>
       <c r="L50">
-        <v>899</v>
+        <v>188</v>
       </c>
       <c r="M50">
-        <v>1919</v>
+        <v>2630</v>
       </c>
       <c r="N50" s="3">
-        <v>0.745</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="O50">
-        <v>0.94299999999999995</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="P50">
-        <v>0.38</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="Q50">
-        <v>0.874</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="R50">
         <f t="shared" si="8"/>
-        <v>0.21981672394043528</v>
+        <v>0.13476122156179546</v>
       </c>
       <c r="S50">
         <f t="shared" si="9"/>
-        <v>0.68097941802696949</v>
+        <v>0.93328601845280346</v>
       </c>
       <c r="T50" s="3">
-        <f t="shared" si="10"/>
-        <v>0.33235192241080708</v>
-      </c>
-    </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+        <f>2*R50*S50/(R50+S50)</f>
+        <v>0.23551535775051496</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="D51">
-        <v>63.2151</v>
+        <v>84.450699999999998</v>
       </c>
       <c r="E51">
-        <v>36.7849</v>
+        <v>15.549300000000001</v>
       </c>
       <c r="F51">
-        <v>0.624</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="G51">
-        <v>0.69299999999999995</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="H51" s="3">
-        <v>0.307</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="I51" s="3">
-        <v>0.376</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="J51">
-        <v>12576</v>
+        <v>18497</v>
       </c>
       <c r="K51">
-        <v>7591</v>
+        <v>1670</v>
       </c>
       <c r="L51">
-        <v>864</v>
+        <v>1904</v>
       </c>
       <c r="M51">
-        <v>1954</v>
+        <v>914</v>
       </c>
       <c r="N51" s="3">
-        <v>0.71899999999999997</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="O51">
-        <v>0.93100000000000005</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="P51">
-        <v>0.34</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="Q51">
-        <v>0.85899999999999999</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="R51">
         <f t="shared" si="8"/>
-        <v>0.20471451021477213</v>
+        <v>0.35371517027863775</v>
       </c>
       <c r="S51">
         <f t="shared" si="9"/>
-        <v>0.69339957416607523</v>
+        <v>0.32434350603264728</v>
       </c>
       <c r="T51" s="3">
-        <f t="shared" si="10"/>
-        <v>0.31610450537895329</v>
-      </c>
-    </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+        <f>2*R51*S51/(R51+S51)</f>
+        <v>0.33839318770825622</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52">
-        <v>84.698700000000002</v>
-      </c>
-      <c r="E52">
-        <v>15.301299999999999</v>
-      </c>
-      <c r="F52">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="G52">
-        <v>0.318</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0.68200000000000005</v>
-      </c>
-      <c r="I52" s="3">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="J52">
-        <v>18572</v>
-      </c>
-      <c r="K52">
-        <v>1595</v>
-      </c>
-      <c r="L52">
-        <v>1922</v>
-      </c>
-      <c r="M52">
-        <v>896</v>
+        <v>67</v>
       </c>
       <c r="N52" s="3">
-        <v>0.68100000000000005</v>
-      </c>
-      <c r="O52">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="P52">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="Q52">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="R52">
-        <f t="shared" si="8"/>
-        <v>0.35969490164592532</v>
-      </c>
-      <c r="S52">
-        <f t="shared" si="9"/>
-        <v>0.31795599716110717</v>
+        <v>0.7127</v>
+      </c>
+      <c r="R52" s="9">
+        <v>0.34329999999999999</v>
+      </c>
+      <c r="S52" s="9">
+        <v>0.3513</v>
       </c>
       <c r="T52" s="3">
-        <f t="shared" si="10"/>
-        <v>0.33754002637031455</v>
-      </c>
-    </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B53" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B54" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54">
-        <v>79.821600000000004</v>
-      </c>
-      <c r="E54">
-        <v>20.1784</v>
-      </c>
-      <c r="F54">
-        <v>0.879</v>
-      </c>
-      <c r="G54">
-        <v>0.221</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0.77900000000000003</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0.121</v>
-      </c>
-      <c r="J54">
-        <v>17723</v>
-      </c>
-      <c r="K54">
-        <v>2444</v>
-      </c>
-      <c r="L54">
-        <v>2194</v>
-      </c>
-      <c r="M54">
-        <v>624</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="O54">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="P54">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="Q54">
-        <v>0.81899999999999995</v>
-      </c>
-      <c r="R54">
-        <f t="shared" si="8"/>
-        <v>0.20338983050847459</v>
-      </c>
-      <c r="S54">
-        <f t="shared" si="9"/>
-        <v>0.22143364088005676</v>
-      </c>
-      <c r="T54" s="3">
-        <f t="shared" si="10"/>
-        <v>0.21202854230377166</v>
-      </c>
-    </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B55" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55">
-        <v>73.365200000000002</v>
-      </c>
-      <c r="E55">
-        <v>26.634799999999998</v>
-      </c>
-      <c r="F55">
-        <v>0.749</v>
-      </c>
-      <c r="G55">
-        <v>0.624</v>
-      </c>
-      <c r="H55" s="3">
-        <v>0.376</v>
-      </c>
-      <c r="I55" s="3">
-        <v>0.251</v>
-      </c>
-      <c r="J55">
-        <v>15105</v>
-      </c>
-      <c r="K55">
-        <v>5062</v>
-      </c>
-      <c r="L55">
-        <v>1060</v>
-      </c>
-      <c r="M55">
-        <v>1758</v>
-      </c>
-      <c r="N55" s="3">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="O55">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="P55">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="Q55">
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="R55">
-        <f t="shared" si="8"/>
-        <v>0.25777126099706743</v>
-      </c>
-      <c r="S55">
-        <f t="shared" si="9"/>
-        <v>0.62384669978708307</v>
-      </c>
-      <c r="T55" s="3">
-        <f t="shared" si="10"/>
-        <v>0.3648059763436397</v>
-      </c>
-    </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B56" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56">
-        <v>81.474900000000005</v>
-      </c>
-      <c r="E56">
-        <v>18.525099999999998</v>
-      </c>
-      <c r="F56">
-        <v>0.877</v>
-      </c>
-      <c r="G56">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="H56" s="3">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="I56" s="3">
-        <v>0.123</v>
-      </c>
-      <c r="J56">
-        <v>17691</v>
-      </c>
-      <c r="K56">
-        <v>2476</v>
-      </c>
-      <c r="L56">
-        <v>1782</v>
-      </c>
-      <c r="M56">
-        <v>1036</v>
-      </c>
-      <c r="N56" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="O56">
-        <v>0.91100000000000003</v>
-      </c>
-      <c r="P56">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="Q56">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="R56">
-        <f t="shared" si="8"/>
-        <v>0.29498861047835989</v>
-      </c>
-      <c r="S56">
-        <f t="shared" si="9"/>
-        <v>0.36763662171753014</v>
-      </c>
-      <c r="T56" s="3">
-        <f t="shared" si="10"/>
-        <v>0.32733017377567136</v>
-      </c>
-    </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B57" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B58" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" t="s">
-        <v>12</v>
+        <f>2*R52*S52/(R52+S52)</f>
+        <v>0.34725393031960838</v>
       </c>
     </row>
   </sheetData>
@@ -3442,12 +3704,1400 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="A2:T25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>25.716799999999999</v>
+      </c>
+      <c r="E2">
+        <v>74.283199999999994</v>
+      </c>
+      <c r="F2">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="H2" s="3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="J2">
+        <v>3281</v>
+      </c>
+      <c r="K2">
+        <v>16886</v>
+      </c>
+      <c r="L2">
+        <v>188</v>
+      </c>
+      <c r="M2">
+        <v>2630</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="O2">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="P2">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="Q2">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="R2">
+        <f>M2/(M2+K2)</f>
+        <v>0.13476122156179546</v>
+      </c>
+      <c r="S2">
+        <f>M2/(M2+L2)</f>
+        <v>0.93328601845280346</v>
+      </c>
+      <c r="T2" s="3">
+        <f>2*R2*S2/(R2+S2)</f>
+        <v>0.23551535775051496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>63.2151</v>
+      </c>
+      <c r="E3">
+        <v>36.7849</v>
+      </c>
+      <c r="F3">
+        <v>0.624</v>
+      </c>
+      <c r="G3">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.307</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.376</v>
+      </c>
+      <c r="J3">
+        <v>12576</v>
+      </c>
+      <c r="K3">
+        <v>7591</v>
+      </c>
+      <c r="L3">
+        <v>864</v>
+      </c>
+      <c r="M3">
+        <v>1954</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="O3">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="P3">
+        <v>0.34</v>
+      </c>
+      <c r="Q3">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="R3">
+        <f>M3/(M3+K3)</f>
+        <v>0.20471451021477213</v>
+      </c>
+      <c r="S3">
+        <f>M3/(M3+L3)</f>
+        <v>0.69339957416607523</v>
+      </c>
+      <c r="T3" s="3">
+        <f>2*R3*S3/(R3+S3)</f>
+        <v>0.31610450537895329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>66.456400000000002</v>
+      </c>
+      <c r="E4">
+        <v>33.543599999999998</v>
+      </c>
+      <c r="F4">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="G4">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="J4">
+        <v>13356</v>
+      </c>
+      <c r="K4">
+        <v>6811</v>
+      </c>
+      <c r="L4">
+        <v>899</v>
+      </c>
+      <c r="M4">
+        <v>1919</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.745</v>
+      </c>
+      <c r="O4">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="P4">
+        <v>0.38</v>
+      </c>
+      <c r="Q4">
+        <v>0.874</v>
+      </c>
+      <c r="R4">
+        <f>M4/(M4+K4)</f>
+        <v>0.21981672394043528</v>
+      </c>
+      <c r="S4">
+        <f>M4/(M4+L4)</f>
+        <v>0.68097941802696949</v>
+      </c>
+      <c r="T4" s="3">
+        <f>2*R4*S4/(R4+S4)</f>
+        <v>0.33235192241080708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>73.365200000000002</v>
+      </c>
+      <c r="E5">
+        <v>26.634799999999998</v>
+      </c>
+      <c r="F5">
+        <v>0.749</v>
+      </c>
+      <c r="G5">
+        <v>0.624</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.376</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0.251</v>
+      </c>
+      <c r="J5">
+        <v>15105</v>
+      </c>
+      <c r="K5">
+        <v>5062</v>
+      </c>
+      <c r="L5">
+        <v>1060</v>
+      </c>
+      <c r="M5">
+        <v>1758</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="P5">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="Q5">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="R5">
+        <f>M5/(M5+K5)</f>
+        <v>0.25777126099706743</v>
+      </c>
+      <c r="S5">
+        <f>M5/(M5+L5)</f>
+        <v>0.62384669978708307</v>
+      </c>
+      <c r="T5" s="3">
+        <f>2*R5*S5/(R5+S5)</f>
+        <v>0.3648059763436397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>67.483099999999993</v>
+      </c>
+      <c r="E6">
+        <v>32.5169</v>
+      </c>
+      <c r="F6">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="G6">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.315</v>
+      </c>
+      <c r="J6">
+        <v>13817</v>
+      </c>
+      <c r="K6">
+        <v>6350</v>
+      </c>
+      <c r="L6">
+        <v>1124</v>
+      </c>
+      <c r="M6">
+        <v>1694</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="O6">
+        <v>0.94</v>
+      </c>
+      <c r="P6">
+        <v>0.254</v>
+      </c>
+      <c r="Q6">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="R6">
+        <f>M6/(M6+K6)</f>
+        <v>0.21059174540029835</v>
+      </c>
+      <c r="S6">
+        <f>M6/(M6+L6)</f>
+        <v>0.60113555713271827</v>
+      </c>
+      <c r="T6" s="3">
+        <f>2*R6*S6/(R6+S6)</f>
+        <v>0.31191309151169211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>76.615200000000002</v>
+      </c>
+      <c r="E7">
+        <v>23.384799999999998</v>
+      </c>
+      <c r="F7">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G7">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.189</v>
+      </c>
+      <c r="J7">
+        <v>16353</v>
+      </c>
+      <c r="K7">
+        <v>3814</v>
+      </c>
+      <c r="L7">
+        <v>1561</v>
+      </c>
+      <c r="M7">
+        <v>1257</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="O7">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="P7">
+        <v>0.252</v>
+      </c>
+      <c r="Q7">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="R7">
+        <f>M7/(M7+K7)</f>
+        <v>0.24788010254387693</v>
+      </c>
+      <c r="S7">
+        <f>M7/(M7+L7)</f>
+        <v>0.44606103619588361</v>
+      </c>
+      <c r="T7" s="3">
+        <f>2*R7*S7/(R7+S7)</f>
+        <v>0.31867156800608443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>81.474900000000005</v>
+      </c>
+      <c r="E8">
+        <v>18.525099999999998</v>
+      </c>
+      <c r="F8">
+        <v>0.877</v>
+      </c>
+      <c r="G8">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.123</v>
+      </c>
+      <c r="J8">
+        <v>17691</v>
+      </c>
+      <c r="K8">
+        <v>2476</v>
+      </c>
+      <c r="L8">
+        <v>1782</v>
+      </c>
+      <c r="M8">
+        <v>1036</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="O8">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="P8">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="Q8">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="R8">
+        <f>M8/(M8+K8)</f>
+        <v>0.29498861047835989</v>
+      </c>
+      <c r="S8">
+        <f>M8/(M8+L8)</f>
+        <v>0.36763662171753014</v>
+      </c>
+      <c r="T8" s="3">
+        <f>2*R8*S8/(R8+S8)</f>
+        <v>0.32733017377567136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>83.754599999999996</v>
+      </c>
+      <c r="E9">
+        <v>16.2454</v>
+      </c>
+      <c r="F9">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="G9">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="I9" s="3">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J9">
+        <v>18247</v>
+      </c>
+      <c r="K9">
+        <v>1920</v>
+      </c>
+      <c r="L9">
+        <v>1814</v>
+      </c>
+      <c r="M9">
+        <v>1004</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="O9">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="P9">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="Q9">
+        <v>0.86</v>
+      </c>
+      <c r="R9">
+        <f>M9/(M9+K9)</f>
+        <v>0.34336525307797539</v>
+      </c>
+      <c r="S9">
+        <f>M9/(M9+L9)</f>
+        <v>0.35628105039034774</v>
+      </c>
+      <c r="T9" s="3">
+        <f>2*R9*S9/(R9+S9)</f>
+        <v>0.34970393591083243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10">
+        <v>84.698700000000002</v>
+      </c>
+      <c r="E10">
+        <v>15.301299999999999</v>
+      </c>
+      <c r="F10">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="G10">
+        <v>0.318</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="I10" s="3">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="J10">
+        <v>18572</v>
+      </c>
+      <c r="K10">
+        <v>1595</v>
+      </c>
+      <c r="L10">
+        <v>1922</v>
+      </c>
+      <c r="M10">
+        <v>896</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="O10">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="P10">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="Q10">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="R10">
+        <f>M10/(M10+K10)</f>
+        <v>0.35969490164592532</v>
+      </c>
+      <c r="S10">
+        <f>M10/(M10+L10)</f>
+        <v>0.31795599716110717</v>
+      </c>
+      <c r="T10" s="3">
+        <f>2*R10*S10/(R10+S10)</f>
+        <v>0.33754002637031455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11">
+        <v>85.238200000000006</v>
+      </c>
+      <c r="E11">
+        <v>14.761799999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="G11">
+        <v>0.31</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="I11" s="3">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J11">
+        <v>18719</v>
+      </c>
+      <c r="K11">
+        <v>1448</v>
+      </c>
+      <c r="L11">
+        <v>1945</v>
+      </c>
+      <c r="M11">
+        <v>873</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="O11">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="P11">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="Q11">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="R11">
+        <f>M11/(M11+K11)</f>
+        <v>0.37613097802671264</v>
+      </c>
+      <c r="S11">
+        <f>M11/(M11+L11)</f>
+        <v>0.3097941802696948</v>
+      </c>
+      <c r="T11" s="3">
+        <f>2*R11*S11/(R11+S11)</f>
+        <v>0.33975481611208408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>89.510599999999997</v>
+      </c>
+      <c r="E12">
+        <v>10.4894</v>
+      </c>
+      <c r="F12">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="G12">
+        <v>0.251</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.749</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J12">
+        <v>19866</v>
+      </c>
+      <c r="K12">
+        <v>301</v>
+      </c>
+      <c r="L12">
+        <v>2110</v>
+      </c>
+      <c r="M12">
+        <v>708</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="O12">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="P12">
+        <v>0.34</v>
+      </c>
+      <c r="Q12">
+        <v>0.86</v>
+      </c>
+      <c r="R12">
+        <f>M12/(M12+K12)</f>
+        <v>0.70168483647175417</v>
+      </c>
+      <c r="S12">
+        <f>M12/(M12+L12)</f>
+        <v>0.25124201561391057</v>
+      </c>
+      <c r="T12" s="3">
+        <f>2*R12*S12/(R12+S12)</f>
+        <v>0.37000261301280379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>89.545400000000001</v>
+      </c>
+      <c r="E13">
+        <v>10.454599999999999</v>
+      </c>
+      <c r="F13">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="G13">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J13">
+        <v>19895</v>
+      </c>
+      <c r="K13">
+        <v>272</v>
+      </c>
+      <c r="L13">
+        <v>2131</v>
+      </c>
+      <c r="M13">
+        <v>687</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="P13">
+        <v>0.436</v>
+      </c>
+      <c r="Q13">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="R13">
+        <f>M13/(M13+K13)</f>
+        <v>0.71637122002085507</v>
+      </c>
+      <c r="S13">
+        <f>M13/(M13+L13)</f>
+        <v>0.24378992193044713</v>
+      </c>
+      <c r="T13" s="3">
+        <f>2*R13*S13/(R13+S13)</f>
+        <v>0.36378077839555201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14">
+        <v>90.110900000000001</v>
+      </c>
+      <c r="E14">
+        <v>9.8890999999999991</v>
+      </c>
+      <c r="F14">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G14">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="I14" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J14">
+        <v>20049</v>
+      </c>
+      <c r="K14">
+        <v>118</v>
+      </c>
+      <c r="L14">
+        <v>2155</v>
+      </c>
+      <c r="M14">
+        <v>663</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="P14">
+        <v>0.47</v>
+      </c>
+      <c r="Q14">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="R14">
+        <f>M14/(M14+K14)</f>
+        <v>0.8489116517285531</v>
+      </c>
+      <c r="S14">
+        <f>M14/(M14+L14)</f>
+        <v>0.23527324343506031</v>
+      </c>
+      <c r="T14" s="3">
+        <f>2*R14*S14/(R14+S14)</f>
+        <v>0.36843567657682685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>89.410499999999999</v>
+      </c>
+      <c r="E15">
+        <v>10.589499999999999</v>
+      </c>
+      <c r="F15">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="G15">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="J15">
+        <v>19892</v>
+      </c>
+      <c r="K15">
+        <v>275</v>
+      </c>
+      <c r="L15">
+        <v>2159</v>
+      </c>
+      <c r="M15">
+        <v>659</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0.746</v>
+      </c>
+      <c r="O15">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="P15">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="Q15">
+        <v>0.876</v>
+      </c>
+      <c r="R15">
+        <f>M15/(M15+K15)</f>
+        <v>0.70556745182012848</v>
+      </c>
+      <c r="S15">
+        <f>M15/(M15+L15)</f>
+        <v>0.23385379701916253</v>
+      </c>
+      <c r="T15" s="3">
+        <f>2*R15*S15/(R15+S15)</f>
+        <v>0.3512793176972282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>89.884699999999995</v>
+      </c>
+      <c r="E16">
+        <v>10.1153</v>
+      </c>
+      <c r="F16">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G16">
+        <v>0.23</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="I16" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J16">
+        <v>20011</v>
+      </c>
+      <c r="K16">
+        <v>156</v>
+      </c>
+      <c r="L16">
+        <v>2169</v>
+      </c>
+      <c r="M16">
+        <v>649</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="O16">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="P16">
+        <v>0.434</v>
+      </c>
+      <c r="Q16">
+        <v>0.877</v>
+      </c>
+      <c r="R16">
+        <f>M16/(M16+K16)</f>
+        <v>0.80621118012422355</v>
+      </c>
+      <c r="S16">
+        <f>M16/(M16+L16)</f>
+        <v>0.23030518097941802</v>
+      </c>
+      <c r="T16" s="3">
+        <f>2*R16*S16/(R16+S16)</f>
+        <v>0.35826662986475288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17">
+        <v>90.123999999999995</v>
+      </c>
+      <c r="E17">
+        <v>9.8759999999999994</v>
+      </c>
+      <c r="F17">
+        <v>0.996</v>
+      </c>
+      <c r="G17">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J17">
+        <v>20080</v>
+      </c>
+      <c r="K17">
+        <v>87</v>
+      </c>
+      <c r="L17">
+        <v>2183</v>
+      </c>
+      <c r="M17">
+        <v>635</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="O17">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="P17">
+        <v>0.41</v>
+      </c>
+      <c r="Q17">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="R17">
+        <f>M17/(M17+K17)</f>
+        <v>0.87950138504155129</v>
+      </c>
+      <c r="S17">
+        <f>M17/(M17+L17)</f>
+        <v>0.22533711852377572</v>
+      </c>
+      <c r="T17" s="3">
+        <f>2*R17*S17/(R17+S17)</f>
+        <v>0.35875706214689268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18">
+        <v>79.821600000000004</v>
+      </c>
+      <c r="E18">
+        <v>20.1784</v>
+      </c>
+      <c r="F18">
+        <v>0.879</v>
+      </c>
+      <c r="G18">
+        <v>0.221</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.121</v>
+      </c>
+      <c r="J18">
+        <v>17723</v>
+      </c>
+      <c r="K18">
+        <v>2444</v>
+      </c>
+      <c r="L18">
+        <v>2194</v>
+      </c>
+      <c r="M18">
+        <v>624</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="O18">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="P18">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="Q18">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="R18">
+        <f>M18/(M18+K18)</f>
+        <v>0.20338983050847459</v>
+      </c>
+      <c r="S18">
+        <f>M18/(M18+L18)</f>
+        <v>0.22143364088005676</v>
+      </c>
+      <c r="T18" s="3">
+        <f>2*R18*S18/(R18+S18)</f>
+        <v>0.21202854230377166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19">
+        <v>87.069800000000001</v>
+      </c>
+      <c r="E19">
+        <v>12.930199999999999</v>
+      </c>
+      <c r="F19">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="G19">
+        <v>0.217</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="I19" s="3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J19">
+        <v>19402</v>
+      </c>
+      <c r="K19">
+        <v>765</v>
+      </c>
+      <c r="L19">
+        <v>2207</v>
+      </c>
+      <c r="M19">
+        <v>611</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="O19">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="P19">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="Q19">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="R19">
+        <f>M19/(M19+K19)</f>
+        <v>0.44404069767441862</v>
+      </c>
+      <c r="S19">
+        <f>M19/(M19+L19)</f>
+        <v>0.21682044002838893</v>
+      </c>
+      <c r="T19" s="3">
+        <f>2*R19*S19/(R19+S19)</f>
+        <v>0.29136862184072487</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20">
+        <v>87.974800000000002</v>
+      </c>
+      <c r="E20">
+        <v>12.0252</v>
+      </c>
+      <c r="F20">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="G20">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J20">
+        <v>19720</v>
+      </c>
+      <c r="K20">
+        <v>447</v>
+      </c>
+      <c r="L20">
+        <v>2317</v>
+      </c>
+      <c r="M20">
+        <v>501</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="O20">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="P20">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="Q20">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="R20">
+        <f>M20/(M20+K20)</f>
+        <v>0.52848101265822789</v>
+      </c>
+      <c r="S20">
+        <f>M20/(M20+L20)</f>
+        <v>0.17778566359119943</v>
+      </c>
+      <c r="T20" s="3">
+        <f>2*R20*S20/(R20+S20)</f>
+        <v>0.26606479022835905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>87.3352</v>
+      </c>
+      <c r="E21">
+        <v>12.6648</v>
+      </c>
+      <c r="F21">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G21">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="I21" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J21">
+        <v>19998</v>
+      </c>
+      <c r="K21">
+        <v>169</v>
+      </c>
+      <c r="L21">
+        <v>2742</v>
+      </c>
+      <c r="M21">
+        <v>76</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.879</v>
+      </c>
+      <c r="P21">
+        <v>0.128</v>
+      </c>
+      <c r="Q21">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="R21">
+        <f>M21/(M21+K21)</f>
+        <v>0.31020408163265306</v>
+      </c>
+      <c r="S21">
+        <f>M21/(M21+L21)</f>
+        <v>2.6969481902058199E-2</v>
+      </c>
+      <c r="T21" s="3">
+        <f>2*R21*S21/(R21+S21)</f>
+        <v>4.9624551093698989E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="T22" s="3"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="N23" s="3">
+        <v>0.70779999999999998</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="S23" s="9">
+        <v>0.3513</v>
+      </c>
+      <c r="T23" s="3">
+        <f>2*R23*S23/(R23+S23)</f>
+        <v>0.3496422136422136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="N24" s="3">
+        <v>0.7127</v>
+      </c>
+      <c r="R24" s="9">
+        <v>0.34329999999999999</v>
+      </c>
+      <c r="S24" s="9">
+        <v>0.3513</v>
+      </c>
+      <c r="T24" s="3">
+        <f>2*R24*S24/(R24+S24)</f>
+        <v>0.34725393031960838</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="T25" s="3"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:T25">
+    <sortCondition ref="H1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Model_Output_Summary.xlsx
+++ b/Model_Output_Summary.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="16275" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="16275" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="74">
   <si>
     <t>model</t>
   </si>
@@ -234,6 +234,24 @@
   </si>
   <si>
     <t>balanced data</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>libLinear (Unbalanced)</t>
+  </si>
+  <si>
+    <t>libLinear (Balanced)</t>
+  </si>
+  <si>
+    <t>logitBoost(Unbalanced)</t>
+  </si>
+  <si>
+    <t>logitBoost(Balanced)</t>
   </si>
 </sst>
 </file>
@@ -335,6 +353,228 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400"/>
+              <a:t>FN</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" baseline="0"/>
+              <a:t>/FP Trade-Off with Data Balancing</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>FP</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$F$14:$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>libLinear (Unbalanced)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>libLinear (Balanced)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>logitBoost(Unbalanced)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>logitBoost(Balanced)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$14:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1670</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>FN</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$F$14:$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>libLinear (Unbalanced)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>libLinear (Balanced)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>logitBoost(Unbalanced)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>logitBoost(Balanced)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$14:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1814</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="80954496"/>
+        <c:axId val="80956416"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="80954496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80956416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80956416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80954496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -357,8 +597,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16544925" y="571500"/>
-          <a:ext cx="2152381" cy="1571556"/>
+          <a:off x="16562614" y="571500"/>
+          <a:ext cx="2160546" cy="1571556"/>
           <a:chOff x="16821150" y="571500"/>
           <a:chExt cx="2152381" cy="1571556"/>
         </a:xfrm>
@@ -415,10 +655,45 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="NewsPrint">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -426,34 +701,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="303030"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="DEDEE0"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="AD0101"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="726056"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="AC956E"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="808DA9"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="424E5B"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="730E00"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="D26900"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="D89243"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -704,9 +979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3020,6 +3295,12 @@
       <c r="C40" t="s">
         <v>66</v>
       </c>
+      <c r="D40">
+        <v>82.84</v>
+      </c>
+      <c r="E40">
+        <v>17.16</v>
+      </c>
       <c r="N40" s="3">
         <v>0.70779999999999998</v>
       </c>
@@ -3677,6 +3958,12 @@
       </c>
       <c r="C52" t="s">
         <v>67</v>
+      </c>
+      <c r="D52">
+        <v>83.81</v>
+      </c>
+      <c r="E52">
+        <v>16.190000000000001</v>
       </c>
       <c r="N52" s="3">
         <v>0.7127</v>
@@ -3706,9 +3993,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="A2:T25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3780,127 +4069,127 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>18</v>
+      <c r="B2" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>25.716799999999999</v>
+        <v>89.510599999999997</v>
       </c>
       <c r="E2">
-        <v>74.283199999999994</v>
+        <v>10.4894</v>
       </c>
       <c r="F2">
-        <v>0.16300000000000001</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="G2">
+        <v>0.251</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.749</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J2">
+        <v>19866</v>
+      </c>
+      <c r="K2">
+        <v>301</v>
+      </c>
+      <c r="L2">
+        <v>2110</v>
+      </c>
+      <c r="M2">
+        <v>708</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="O2">
         <v>0.93300000000000005</v>
       </c>
-      <c r="H2" s="3">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="J2">
-        <v>3281</v>
-      </c>
-      <c r="K2">
-        <v>16886</v>
-      </c>
-      <c r="L2">
-        <v>188</v>
-      </c>
-      <c r="M2">
-        <v>2630</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="O2">
+      <c r="P2">
+        <v>0.34</v>
+      </c>
+      <c r="Q2">
+        <v>0.86</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2:R9" si="0">M2/(M2+K2)</f>
+        <v>0.70168483647175417</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2:S9" si="1">M2/(M2+L2)</f>
+        <v>0.25124201561391057</v>
+      </c>
+      <c r="T2" s="3">
+        <f t="shared" ref="T2:T24" si="2">2*R2*S2/(R2+S2)</f>
+        <v>0.37000261301280379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3">
+        <v>90.110900000000001</v>
+      </c>
+      <c r="E3">
+        <v>9.8890999999999991</v>
+      </c>
+      <c r="F3">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="I3" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J3">
+        <v>20049</v>
+      </c>
+      <c r="K3">
+        <v>118</v>
+      </c>
+      <c r="L3">
+        <v>2155</v>
+      </c>
+      <c r="M3">
+        <v>663</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="O3">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="P3">
+        <v>0.47</v>
+      </c>
+      <c r="Q3">
         <v>0.88900000000000001</v>
       </c>
-      <c r="P2">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="Q2">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="R2">
-        <f>M2/(M2+K2)</f>
-        <v>0.13476122156179546</v>
-      </c>
-      <c r="S2">
-        <f>M2/(M2+L2)</f>
-        <v>0.93328601845280346</v>
-      </c>
-      <c r="T2" s="3">
-        <f>2*R2*S2/(R2+S2)</f>
-        <v>0.23551535775051496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>63.2151</v>
-      </c>
-      <c r="E3">
-        <v>36.7849</v>
-      </c>
-      <c r="F3">
-        <v>0.624</v>
-      </c>
-      <c r="G3">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.307</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.376</v>
-      </c>
-      <c r="J3">
-        <v>12576</v>
-      </c>
-      <c r="K3">
-        <v>7591</v>
-      </c>
-      <c r="L3">
-        <v>864</v>
-      </c>
-      <c r="M3">
-        <v>1954</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="O3">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="P3">
-        <v>0.34</v>
-      </c>
-      <c r="Q3">
-        <v>0.85899999999999999</v>
-      </c>
       <c r="R3">
-        <f>M3/(M3+K3)</f>
-        <v>0.20471451021477213</v>
+        <f t="shared" si="0"/>
+        <v>0.8489116517285531</v>
       </c>
       <c r="S3">
-        <f>M3/(M3+L3)</f>
-        <v>0.69339957416607523</v>
+        <f t="shared" si="1"/>
+        <v>0.23527324343506031</v>
       </c>
       <c r="T3" s="3">
-        <f>2*R3*S3/(R3+S3)</f>
-        <v>0.31610450537895329</v>
+        <f t="shared" si="2"/>
+        <v>0.36843567657682685</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -3908,312 +4197,313 @@
         <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D4">
-        <v>66.456400000000002</v>
+        <v>73.365200000000002</v>
       </c>
       <c r="E4">
-        <v>33.543599999999998</v>
+        <v>26.634799999999998</v>
       </c>
       <c r="F4">
-        <v>0.66200000000000003</v>
+        <v>0.749</v>
       </c>
       <c r="G4">
-        <v>0.68100000000000005</v>
+        <v>0.624</v>
       </c>
       <c r="H4" s="3">
-        <v>0.31900000000000001</v>
+        <v>0.376</v>
       </c>
       <c r="I4" s="3">
-        <v>0.33800000000000002</v>
+        <v>0.251</v>
       </c>
       <c r="J4">
-        <v>13356</v>
+        <v>15105</v>
       </c>
       <c r="K4">
-        <v>6811</v>
+        <v>5062</v>
       </c>
       <c r="L4">
-        <v>899</v>
+        <v>1060</v>
       </c>
       <c r="M4">
-        <v>1919</v>
+        <v>1758</v>
       </c>
       <c r="N4" s="3">
-        <v>0.745</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="O4">
-        <v>0.94299999999999995</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="P4">
-        <v>0.38</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="Q4">
-        <v>0.874</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="R4">
-        <f>M4/(M4+K4)</f>
-        <v>0.21981672394043528</v>
+        <f t="shared" si="0"/>
+        <v>0.25777126099706743</v>
       </c>
       <c r="S4">
-        <f>M4/(M4+L4)</f>
-        <v>0.68097941802696949</v>
+        <f t="shared" si="1"/>
+        <v>0.62384669978708307</v>
       </c>
       <c r="T4" s="3">
-        <f>2*R4*S4/(R4+S4)</f>
-        <v>0.33235192241080708</v>
+        <f t="shared" si="2"/>
+        <v>0.3648059763436397</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>51</v>
       </c>
       <c r="D5">
-        <v>73.365200000000002</v>
+        <v>89.545400000000001</v>
       </c>
       <c r="E5">
-        <v>26.634799999999998</v>
+        <v>10.454599999999999</v>
       </c>
       <c r="F5">
-        <v>0.749</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="G5">
-        <v>0.624</v>
+        <v>0.24399999999999999</v>
       </c>
       <c r="H5" s="3">
-        <v>0.376</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="I5" s="3">
-        <v>0.251</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="J5">
-        <v>15105</v>
+        <v>19895</v>
       </c>
       <c r="K5">
-        <v>5062</v>
+        <v>272</v>
       </c>
       <c r="L5">
-        <v>1060</v>
+        <v>2131</v>
       </c>
       <c r="M5">
-        <v>1758</v>
+        <v>687</v>
       </c>
       <c r="N5" s="3">
-        <v>0.75900000000000001</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="O5">
-        <v>0.94799999999999995</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="P5">
-        <v>0.42799999999999999</v>
+        <v>0.436</v>
       </c>
       <c r="Q5">
-        <v>0.88400000000000001</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="R5">
-        <f>M5/(M5+K5)</f>
-        <v>0.25777126099706743</v>
+        <f t="shared" si="0"/>
+        <v>0.71637122002085507</v>
       </c>
       <c r="S5">
-        <f>M5/(M5+L5)</f>
-        <v>0.62384669978708307</v>
+        <f t="shared" si="1"/>
+        <v>0.24378992193044713</v>
       </c>
       <c r="T5" s="3">
-        <f>2*R5*S5/(R5+S5)</f>
-        <v>0.3648059763436397</v>
+        <f t="shared" si="2"/>
+        <v>0.36378077839555201</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>17</v>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>67.483099999999993</v>
+        <v>90.123999999999995</v>
       </c>
       <c r="E6">
-        <v>32.5169</v>
+        <v>9.8759999999999994</v>
       </c>
       <c r="F6">
-        <v>0.68500000000000005</v>
+        <v>0.996</v>
       </c>
       <c r="G6">
-        <v>0.60099999999999998</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="H6" s="3">
-        <v>0.39900000000000002</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="I6" s="3">
-        <v>0.315</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J6">
-        <v>13817</v>
+        <v>20080</v>
       </c>
       <c r="K6">
-        <v>6350</v>
+        <v>87</v>
       </c>
       <c r="L6">
-        <v>1124</v>
+        <v>2183</v>
       </c>
       <c r="M6">
-        <v>1694</v>
+        <v>635</v>
       </c>
       <c r="N6" s="3">
-        <v>0.70499999999999996</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="O6">
-        <v>0.94</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="P6">
-        <v>0.254</v>
+        <v>0.41</v>
       </c>
       <c r="Q6">
-        <v>0.85499999999999998</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="R6">
-        <f>M6/(M6+K6)</f>
-        <v>0.21059174540029835</v>
+        <f t="shared" si="0"/>
+        <v>0.87950138504155129</v>
       </c>
       <c r="S6">
-        <f>M6/(M6+L6)</f>
-        <v>0.60113555713271827</v>
+        <f t="shared" si="1"/>
+        <v>0.22533711852377572</v>
       </c>
       <c r="T6" s="3">
-        <f>2*R6*S6/(R6+S6)</f>
-        <v>0.31191309151169211</v>
+        <f t="shared" si="2"/>
+        <v>0.35875706214689268</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>76.615200000000002</v>
+        <v>89.884699999999995</v>
       </c>
       <c r="E7">
-        <v>23.384799999999998</v>
+        <v>10.1153</v>
       </c>
       <c r="F7">
-        <v>0.81100000000000005</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="G7">
-        <v>0.44600000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="H7" s="3">
-        <v>0.55400000000000005</v>
+        <v>0.77</v>
       </c>
       <c r="I7" s="3">
-        <v>0.189</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="J7">
-        <v>16353</v>
+        <v>20011</v>
       </c>
       <c r="K7">
-        <v>3814</v>
+        <v>156</v>
       </c>
       <c r="L7">
-        <v>1561</v>
+        <v>2169</v>
       </c>
       <c r="M7">
-        <v>1257</v>
+        <v>649</v>
       </c>
       <c r="N7" s="3">
-        <v>0.70799999999999996</v>
+        <v>0.73</v>
       </c>
       <c r="O7">
-        <v>0.94099999999999995</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="P7">
-        <v>0.252</v>
+        <v>0.434</v>
       </c>
       <c r="Q7">
-        <v>0.85599999999999998</v>
+        <v>0.877</v>
       </c>
       <c r="R7">
-        <f>M7/(M7+K7)</f>
-        <v>0.24788010254387693</v>
+        <f t="shared" si="0"/>
+        <v>0.80621118012422355</v>
       </c>
       <c r="S7">
-        <f>M7/(M7+L7)</f>
-        <v>0.44606103619588361</v>
+        <f t="shared" si="1"/>
+        <v>0.23030518097941802</v>
       </c>
       <c r="T7" s="3">
-        <f>2*R7*S7/(R7+S7)</f>
-        <v>0.31867156800608443</v>
+        <f t="shared" si="2"/>
+        <v>0.35826662986475288</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>11</v>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>81.474900000000005</v>
+        <v>89.410499999999999</v>
       </c>
       <c r="E8">
-        <v>18.525099999999998</v>
+        <v>10.589499999999999</v>
       </c>
       <c r="F8">
-        <v>0.877</v>
+        <v>0.98599999999999999</v>
       </c>
       <c r="G8">
-        <v>0.36799999999999999</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="H8" s="3">
-        <v>0.63200000000000001</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="I8" s="3">
-        <v>0.123</v>
+        <v>1.4E-2</v>
       </c>
       <c r="J8">
-        <v>17691</v>
+        <v>19892</v>
       </c>
       <c r="K8">
-        <v>2476</v>
+        <v>275</v>
       </c>
       <c r="L8">
-        <v>1782</v>
+        <v>2159</v>
       </c>
       <c r="M8">
-        <v>1036</v>
+        <v>659</v>
       </c>
       <c r="N8" s="3">
-        <v>0.65</v>
+        <v>0.746</v>
       </c>
       <c r="O8">
-        <v>0.91100000000000003</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="P8">
-        <v>0.28299999999999997</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="Q8">
-        <v>0.83399999999999996</v>
+        <v>0.876</v>
       </c>
       <c r="R8">
-        <f>M8/(M8+K8)</f>
-        <v>0.29498861047835989</v>
+        <f t="shared" si="0"/>
+        <v>0.70556745182012848</v>
       </c>
       <c r="S8">
-        <f>M8/(M8+L8)</f>
-        <v>0.36763662171753014</v>
+        <f t="shared" si="1"/>
+        <v>0.23385379701916253</v>
       </c>
       <c r="T8" s="3">
-        <f>2*R8*S8/(R8+S8)</f>
-        <v>0.32733017377567136</v>
+        <f t="shared" si="2"/>
+        <v>0.3512793176972282</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
       <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
@@ -4263,140 +4553,62 @@
         <v>0.86</v>
       </c>
       <c r="R9">
-        <f>M9/(M9+K9)</f>
+        <f t="shared" si="0"/>
         <v>0.34336525307797539</v>
       </c>
       <c r="S9">
-        <f>M9/(M9+L9)</f>
+        <f t="shared" si="1"/>
         <v>0.35628105039034774</v>
       </c>
       <c r="T9" s="3">
-        <f>2*R9*S9/(R9+S9)</f>
+        <f t="shared" si="2"/>
         <v>0.34970393591083243</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>59</v>
+      <c r="B10" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10">
-        <v>84.698700000000002</v>
-      </c>
-      <c r="E10">
-        <v>15.301299999999999</v>
-      </c>
-      <c r="F10">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="G10">
-        <v>0.318</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.68200000000000005</v>
-      </c>
-      <c r="I10" s="3">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="J10">
-        <v>18572</v>
-      </c>
-      <c r="K10">
-        <v>1595</v>
-      </c>
-      <c r="L10">
-        <v>1922</v>
-      </c>
-      <c r="M10">
-        <v>896</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="N10" s="3">
-        <v>0.68100000000000005</v>
-      </c>
-      <c r="O10">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="P10">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="Q10">
-        <v>0.84599999999999997</v>
-      </c>
-      <c r="R10">
-        <f>M10/(M10+K10)</f>
-        <v>0.35969490164592532</v>
-      </c>
-      <c r="S10">
-        <f>M10/(M10+L10)</f>
-        <v>0.31795599716110717</v>
+        <v>0.70779999999999998</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="S10" s="9">
+        <v>0.3513</v>
       </c>
       <c r="T10" s="3">
-        <f>2*R10*S10/(R10+S10)</f>
-        <v>0.33754002637031455</v>
+        <f t="shared" si="2"/>
+        <v>0.3496422136422136</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>55</v>
+      <c r="B11" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11">
-        <v>85.238200000000006</v>
-      </c>
-      <c r="E11">
-        <v>14.761799999999999</v>
-      </c>
-      <c r="F11">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="G11">
-        <v>0.31</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.69</v>
-      </c>
-      <c r="I11" s="3">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="J11">
-        <v>18719</v>
-      </c>
-      <c r="K11">
-        <v>1448</v>
-      </c>
-      <c r="L11">
-        <v>1945</v>
-      </c>
-      <c r="M11">
-        <v>873</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
       <c r="N11" s="3">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="O11">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="P11">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="Q11">
-        <v>0.85099999999999998</v>
-      </c>
-      <c r="R11">
-        <f>M11/(M11+K11)</f>
-        <v>0.37613097802671264</v>
-      </c>
-      <c r="S11">
-        <f>M11/(M11+L11)</f>
-        <v>0.3097941802696948</v>
+        <v>0.7127</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0.34329999999999999</v>
+      </c>
+      <c r="S11" s="9">
+        <v>0.3513</v>
       </c>
       <c r="T11" s="3">
-        <f>2*R11*S11/(R11+S11)</f>
-        <v>0.33975481611208408</v>
+        <f t="shared" si="2"/>
+        <v>0.34725393031960838</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -4404,495 +4616,495 @@
         <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D12">
-        <v>89.510599999999997</v>
+        <v>85.238200000000006</v>
       </c>
       <c r="E12">
-        <v>10.4894</v>
+        <v>14.761799999999999</v>
       </c>
       <c r="F12">
-        <v>0.98499999999999999</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="G12">
-        <v>0.251</v>
+        <v>0.31</v>
       </c>
       <c r="H12" s="3">
-        <v>0.749</v>
+        <v>0.69</v>
       </c>
       <c r="I12" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="J12">
-        <v>19866</v>
+        <v>18719</v>
       </c>
       <c r="K12">
-        <v>301</v>
+        <v>1448</v>
       </c>
       <c r="L12">
-        <v>2110</v>
+        <v>1945</v>
       </c>
       <c r="M12">
-        <v>708</v>
+        <v>873</v>
       </c>
       <c r="N12" s="3">
-        <v>0.72399999999999998</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="O12">
-        <v>0.93300000000000005</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="P12">
-        <v>0.34</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="Q12">
-        <v>0.86</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="R12">
-        <f>M12/(M12+K12)</f>
-        <v>0.70168483647175417</v>
+        <f t="shared" ref="R12:R24" si="3">M12/(M12+K12)</f>
+        <v>0.37613097802671264</v>
       </c>
       <c r="S12">
-        <f>M12/(M12+L12)</f>
-        <v>0.25124201561391057</v>
+        <f t="shared" ref="S12:S24" si="4">M12/(M12+L12)</f>
+        <v>0.3097941802696948</v>
       </c>
       <c r="T12" s="3">
-        <f>2*R12*S12/(R12+S12)</f>
-        <v>0.37000261301280379</v>
+        <f t="shared" si="2"/>
+        <v>0.33975481611208408</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D13">
-        <v>89.545400000000001</v>
+        <v>84.450699999999998</v>
       </c>
       <c r="E13">
-        <v>10.454599999999999</v>
+        <v>15.549300000000001</v>
       </c>
       <c r="F13">
-        <v>0.98699999999999999</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="G13">
-        <v>0.24399999999999999</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="H13" s="3">
-        <v>0.75600000000000001</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="I13" s="3">
-        <v>1.2999999999999999E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="J13">
-        <v>19895</v>
+        <v>18497</v>
       </c>
       <c r="K13">
-        <v>272</v>
+        <v>1670</v>
       </c>
       <c r="L13">
-        <v>2131</v>
+        <v>1904</v>
       </c>
       <c r="M13">
-        <v>687</v>
+        <v>914</v>
       </c>
       <c r="N13" s="3">
-        <v>0.75700000000000001</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="O13">
-        <v>0.94899999999999995</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="P13">
-        <v>0.436</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="Q13">
-        <v>0.88600000000000001</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="R13">
-        <f>M13/(M13+K13)</f>
-        <v>0.71637122002085507</v>
+        <f t="shared" si="3"/>
+        <v>0.35371517027863775</v>
       </c>
       <c r="S13">
-        <f>M13/(M13+L13)</f>
-        <v>0.24378992193044713</v>
+        <f t="shared" si="4"/>
+        <v>0.32434350603264728</v>
       </c>
       <c r="T13" s="3">
-        <f>2*R13*S13/(R13+S13)</f>
-        <v>0.36378077839555201</v>
+        <f t="shared" si="2"/>
+        <v>0.33839318770825622</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>47</v>
+      <c r="B14" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D14">
-        <v>90.110900000000001</v>
+        <v>84.698700000000002</v>
       </c>
       <c r="E14">
-        <v>9.8890999999999991</v>
+        <v>15.301299999999999</v>
       </c>
       <c r="F14">
-        <v>0.99399999999999999</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="G14">
-        <v>0.23499999999999999</v>
+        <v>0.318</v>
       </c>
       <c r="H14" s="3">
-        <v>0.76500000000000001</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="I14" s="3">
-        <v>6.0000000000000001E-3</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="J14">
-        <v>20049</v>
+        <v>18572</v>
       </c>
       <c r="K14">
-        <v>118</v>
+        <v>1595</v>
       </c>
       <c r="L14">
-        <v>2155</v>
+        <v>1922</v>
       </c>
       <c r="M14">
-        <v>663</v>
+        <v>896</v>
       </c>
       <c r="N14" s="3">
-        <v>0.75800000000000001</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="O14">
-        <v>0.94799999999999995</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="P14">
-        <v>0.47</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="Q14">
-        <v>0.88900000000000001</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="R14">
-        <f>M14/(M14+K14)</f>
-        <v>0.8489116517285531</v>
+        <f t="shared" si="3"/>
+        <v>0.35969490164592532</v>
       </c>
       <c r="S14">
-        <f>M14/(M14+L14)</f>
-        <v>0.23527324343506031</v>
+        <f t="shared" si="4"/>
+        <v>0.31795599716110717</v>
       </c>
       <c r="T14" s="3">
-        <f>2*R14*S14/(R14+S14)</f>
-        <v>0.36843567657682685</v>
+        <f t="shared" si="2"/>
+        <v>0.33754002637031455</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="D15">
-        <v>89.410499999999999</v>
+        <v>66.456400000000002</v>
       </c>
       <c r="E15">
-        <v>10.589499999999999</v>
+        <v>33.543599999999998</v>
       </c>
       <c r="F15">
-        <v>0.98599999999999999</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="G15">
-        <v>0.23400000000000001</v>
+        <v>0.68100000000000005</v>
       </c>
       <c r="H15" s="3">
-        <v>0.76600000000000001</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="I15" s="3">
-        <v>1.4E-2</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="J15">
-        <v>19892</v>
+        <v>13356</v>
       </c>
       <c r="K15">
-        <v>275</v>
+        <v>6811</v>
       </c>
       <c r="L15">
-        <v>2159</v>
+        <v>899</v>
       </c>
       <c r="M15">
-        <v>659</v>
+        <v>1919</v>
       </c>
       <c r="N15" s="3">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="O15">
         <v>0.94299999999999995</v>
       </c>
       <c r="P15">
-        <v>0.39700000000000002</v>
+        <v>0.38</v>
       </c>
       <c r="Q15">
-        <v>0.876</v>
+        <v>0.874</v>
       </c>
       <c r="R15">
-        <f>M15/(M15+K15)</f>
-        <v>0.70556745182012848</v>
+        <f t="shared" si="3"/>
+        <v>0.21981672394043528</v>
       </c>
       <c r="S15">
-        <f>M15/(M15+L15)</f>
-        <v>0.23385379701916253</v>
+        <f t="shared" si="4"/>
+        <v>0.68097941802696949</v>
       </c>
       <c r="T15" s="3">
-        <f>2*R15*S15/(R15+S15)</f>
-        <v>0.3512793176972282</v>
+        <f t="shared" si="2"/>
+        <v>0.33235192241080708</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16">
-        <v>89.884699999999995</v>
+        <v>81.474900000000005</v>
       </c>
       <c r="E16">
-        <v>10.1153</v>
+        <v>18.525099999999998</v>
       </c>
       <c r="F16">
-        <v>0.99199999999999999</v>
+        <v>0.877</v>
       </c>
       <c r="G16">
-        <v>0.23</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="H16" s="3">
-        <v>0.77</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="I16" s="3">
-        <v>8.0000000000000002E-3</v>
+        <v>0.123</v>
       </c>
       <c r="J16">
-        <v>20011</v>
+        <v>17691</v>
       </c>
       <c r="K16">
-        <v>156</v>
+        <v>2476</v>
       </c>
       <c r="L16">
-        <v>2169</v>
+        <v>1782</v>
       </c>
       <c r="M16">
-        <v>649</v>
+        <v>1036</v>
       </c>
       <c r="N16" s="3">
-        <v>0.73</v>
+        <v>0.65</v>
       </c>
       <c r="O16">
-        <v>0.93799999999999994</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="P16">
-        <v>0.434</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="Q16">
-        <v>0.877</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="R16">
-        <f>M16/(M16+K16)</f>
-        <v>0.80621118012422355</v>
+        <f t="shared" si="3"/>
+        <v>0.29498861047835989</v>
       </c>
       <c r="S16">
-        <f>M16/(M16+L16)</f>
-        <v>0.23030518097941802</v>
+        <f t="shared" si="4"/>
+        <v>0.36763662171753014</v>
       </c>
       <c r="T16" s="3">
-        <f>2*R16*S16/(R16+S16)</f>
-        <v>0.35826662986475288</v>
+        <f t="shared" si="2"/>
+        <v>0.32733017377567136</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>90.123999999999995</v>
+        <v>76.615200000000002</v>
       </c>
       <c r="E17">
-        <v>9.8759999999999994</v>
+        <v>23.384799999999998</v>
       </c>
       <c r="F17">
-        <v>0.996</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="G17">
-        <v>0.22500000000000001</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="H17" s="3">
-        <v>0.77500000000000002</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="I17" s="3">
-        <v>4.0000000000000001E-3</v>
+        <v>0.189</v>
       </c>
       <c r="J17">
-        <v>20080</v>
+        <v>16353</v>
       </c>
       <c r="K17">
-        <v>87</v>
+        <v>3814</v>
       </c>
       <c r="L17">
-        <v>2183</v>
+        <v>1561</v>
       </c>
       <c r="M17">
-        <v>635</v>
+        <v>1257</v>
       </c>
       <c r="N17" s="3">
-        <v>0.69099999999999995</v>
+        <v>0.70799999999999996</v>
       </c>
       <c r="O17">
-        <v>0.92400000000000004</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="P17">
-        <v>0.41</v>
+        <v>0.252</v>
       </c>
       <c r="Q17">
-        <v>0.86099999999999999</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="R17">
-        <f>M17/(M17+K17)</f>
-        <v>0.87950138504155129</v>
+        <f t="shared" si="3"/>
+        <v>0.24788010254387693</v>
       </c>
       <c r="S17">
-        <f>M17/(M17+L17)</f>
-        <v>0.22533711852377572</v>
+        <f t="shared" si="4"/>
+        <v>0.44606103619588361</v>
       </c>
       <c r="T17" s="3">
-        <f>2*R17*S17/(R17+S17)</f>
-        <v>0.35875706214689268</v>
+        <f t="shared" si="2"/>
+        <v>0.31867156800608443</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>79.821600000000004</v>
+        <v>63.2151</v>
       </c>
       <c r="E18">
-        <v>20.1784</v>
+        <v>36.7849</v>
       </c>
       <c r="F18">
-        <v>0.879</v>
+        <v>0.624</v>
       </c>
       <c r="G18">
-        <v>0.221</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="H18" s="3">
-        <v>0.77900000000000003</v>
+        <v>0.307</v>
       </c>
       <c r="I18" s="3">
-        <v>0.121</v>
+        <v>0.376</v>
       </c>
       <c r="J18">
-        <v>17723</v>
+        <v>12576</v>
       </c>
       <c r="K18">
-        <v>2444</v>
+        <v>7591</v>
       </c>
       <c r="L18">
-        <v>2194</v>
+        <v>864</v>
       </c>
       <c r="M18">
-        <v>624</v>
+        <v>1954</v>
       </c>
       <c r="N18" s="3">
-        <v>0.60699999999999998</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="O18">
-        <v>0.90900000000000003</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="P18">
-        <v>0.17399999999999999</v>
+        <v>0.34</v>
       </c>
       <c r="Q18">
-        <v>0.81899999999999995</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="R18">
-        <f>M18/(M18+K18)</f>
-        <v>0.20338983050847459</v>
+        <f t="shared" si="3"/>
+        <v>0.20471451021477213</v>
       </c>
       <c r="S18">
-        <f>M18/(M18+L18)</f>
-        <v>0.22143364088005676</v>
+        <f t="shared" si="4"/>
+        <v>0.69339957416607523</v>
       </c>
       <c r="T18" s="3">
-        <f>2*R18*S18/(R18+S18)</f>
-        <v>0.21202854230377166</v>
+        <f t="shared" si="2"/>
+        <v>0.31610450537895329</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>55</v>
+      <c r="B19" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>87.069800000000001</v>
+        <v>67.483099999999993</v>
       </c>
       <c r="E19">
-        <v>12.930199999999999</v>
+        <v>32.5169</v>
       </c>
       <c r="F19">
-        <v>0.96199999999999997</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="G19">
-        <v>0.217</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="H19" s="3">
-        <v>0.78300000000000003</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="I19" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>0.315</v>
       </c>
       <c r="J19">
-        <v>19402</v>
+        <v>13817</v>
       </c>
       <c r="K19">
-        <v>765</v>
+        <v>6350</v>
       </c>
       <c r="L19">
-        <v>2207</v>
+        <v>1124</v>
       </c>
       <c r="M19">
-        <v>611</v>
+        <v>1694</v>
       </c>
       <c r="N19" s="3">
-        <v>0.66</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="O19">
-        <v>0.91800000000000004</v>
+        <v>0.94</v>
       </c>
       <c r="P19">
-        <v>0.29799999999999999</v>
+        <v>0.254</v>
       </c>
       <c r="Q19">
-        <v>0.84199999999999997</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="R19">
-        <f>M19/(M19+K19)</f>
-        <v>0.44404069767441862</v>
+        <f t="shared" si="3"/>
+        <v>0.21059174540029835</v>
       </c>
       <c r="S19">
-        <f>M19/(M19+L19)</f>
-        <v>0.21682044002838893</v>
+        <f t="shared" si="4"/>
+        <v>0.60113555713271827</v>
       </c>
       <c r="T19" s="3">
-        <f>2*R19*S19/(R19+S19)</f>
-        <v>0.29136862184072487</v>
+        <f t="shared" si="2"/>
+        <v>0.31191309151169211</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -4900,194 +5112,321 @@
         <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20">
-        <v>87.974800000000002</v>
+        <v>87.069800000000001</v>
       </c>
       <c r="E20">
-        <v>12.0252</v>
+        <v>12.930199999999999</v>
       </c>
       <c r="F20">
-        <v>0.97799999999999998</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="G20">
-        <v>0.17799999999999999</v>
+        <v>0.217</v>
       </c>
       <c r="H20" s="3">
-        <v>0.82199999999999995</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="I20" s="3">
-        <v>2.1999999999999999E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J20">
-        <v>19720</v>
+        <v>19402</v>
       </c>
       <c r="K20">
-        <v>447</v>
+        <v>765</v>
       </c>
       <c r="L20">
-        <v>2317</v>
+        <v>2207</v>
       </c>
       <c r="M20">
-        <v>501</v>
+        <v>611</v>
       </c>
       <c r="N20" s="3">
-        <v>0.66900000000000004</v>
+        <v>0.66</v>
       </c>
       <c r="O20">
         <v>0.91800000000000004</v>
       </c>
       <c r="P20">
-        <v>0.30299999999999999</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="Q20">
-        <v>0.84299999999999997</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="R20">
-        <f>M20/(M20+K20)</f>
-        <v>0.52848101265822789</v>
+        <f t="shared" si="3"/>
+        <v>0.44404069767441862</v>
       </c>
       <c r="S20">
-        <f>M20/(M20+L20)</f>
-        <v>0.17778566359119943</v>
+        <f t="shared" si="4"/>
+        <v>0.21682044002838893</v>
       </c>
       <c r="T20" s="3">
-        <f>2*R20*S20/(R20+S20)</f>
-        <v>0.26606479022835905</v>
+        <f t="shared" si="2"/>
+        <v>0.29136862184072487</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21">
+        <v>87.974800000000002</v>
+      </c>
+      <c r="E21">
+        <v>12.0252</v>
+      </c>
+      <c r="F21">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="G21">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="I21" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J21">
+        <v>19720</v>
+      </c>
+      <c r="K21">
+        <v>447</v>
+      </c>
+      <c r="L21">
+        <v>2317</v>
+      </c>
+      <c r="M21">
+        <v>501</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="O21">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="P21">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="Q21">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>0.52848101265822789</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="4"/>
+        <v>0.17778566359119943</v>
+      </c>
+      <c r="T21" s="3">
+        <f t="shared" si="2"/>
+        <v>0.26606479022835905</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>12</v>
       </c>
-      <c r="D21">
+      <c r="D22">
+        <v>25.716799999999999</v>
+      </c>
+      <c r="E22">
+        <v>74.283199999999994</v>
+      </c>
+      <c r="F22">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="G22">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="J22">
+        <v>3281</v>
+      </c>
+      <c r="K22">
+        <v>16886</v>
+      </c>
+      <c r="L22">
+        <v>188</v>
+      </c>
+      <c r="M22">
+        <v>2630</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="O22">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="P22">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="Q22">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>0.13476122156179546</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="4"/>
+        <v>0.93328601845280346</v>
+      </c>
+      <c r="T22" s="3">
+        <f t="shared" si="2"/>
+        <v>0.23551535775051496</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23">
+        <v>79.821600000000004</v>
+      </c>
+      <c r="E23">
+        <v>20.1784</v>
+      </c>
+      <c r="F23">
+        <v>0.879</v>
+      </c>
+      <c r="G23">
+        <v>0.221</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.121</v>
+      </c>
+      <c r="J23">
+        <v>17723</v>
+      </c>
+      <c r="K23">
+        <v>2444</v>
+      </c>
+      <c r="L23">
+        <v>2194</v>
+      </c>
+      <c r="M23">
+        <v>624</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="O23">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="P23">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="Q23">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>0.20338983050847459</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="4"/>
+        <v>0.22143364088005676</v>
+      </c>
+      <c r="T23" s="3">
+        <f t="shared" si="2"/>
+        <v>0.21202854230377166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24">
         <v>87.3352</v>
       </c>
-      <c r="E21">
+      <c r="E24">
         <v>12.6648</v>
       </c>
-      <c r="F21">
+      <c r="F24">
         <v>0.99199999999999999</v>
       </c>
-      <c r="G21">
+      <c r="G24">
         <v>2.7E-2</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H24" s="3">
         <v>0.97299999999999998</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I24" s="3">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J21">
+      <c r="J24">
         <v>19998</v>
       </c>
-      <c r="K21">
+      <c r="K24">
         <v>169</v>
       </c>
-      <c r="L21">
+      <c r="L24">
         <v>2742</v>
       </c>
-      <c r="M21">
+      <c r="M24">
         <v>76</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N24" s="3">
         <v>0.50900000000000001</v>
       </c>
-      <c r="O21">
+      <c r="O24">
         <v>0.879</v>
       </c>
-      <c r="P21">
+      <c r="P24">
         <v>0.128</v>
       </c>
-      <c r="Q21">
+      <c r="Q24">
         <v>0.78700000000000003</v>
       </c>
-      <c r="R21">
-        <f>M21/(M21+K21)</f>
+      <c r="R24">
+        <f t="shared" si="3"/>
         <v>0.31020408163265306</v>
       </c>
-      <c r="S21">
-        <f>M21/(M21+L21)</f>
+      <c r="S24">
+        <f t="shared" si="4"/>
         <v>2.6969481902058199E-2</v>
       </c>
-      <c r="T21" s="3">
-        <f>2*R21*S21/(R21+S21)</f>
+      <c r="T24" s="3">
+        <f t="shared" si="2"/>
         <v>4.9624551093698989E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="T22" s="3"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="N23" s="3">
-        <v>0.70779999999999998</v>
-      </c>
-      <c r="R23" s="9">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="S23" s="9">
-        <v>0.3513</v>
-      </c>
-      <c r="T23" s="3">
-        <f>2*R23*S23/(R23+S23)</f>
-        <v>0.3496422136422136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="N24" s="3">
-        <v>0.7127</v>
-      </c>
-      <c r="R24" s="9">
-        <v>0.34329999999999999</v>
-      </c>
-      <c r="S24" s="9">
-        <v>0.3513</v>
-      </c>
-      <c r="T24" s="3">
-        <f>2*R24*S24/(R24+S24)</f>
-        <v>0.34725393031960838</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -5096,7 +5435,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:T25">
-    <sortCondition ref="H1"/>
+    <sortCondition descending="1" ref="T2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5104,12 +5443,616 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>41255</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>76.615200000000002</v>
+      </c>
+      <c r="E2">
+        <v>23.384799999999998</v>
+      </c>
+      <c r="F2">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G2">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0.189</v>
+      </c>
+      <c r="J2">
+        <v>16353</v>
+      </c>
+      <c r="K2">
+        <v>3814</v>
+      </c>
+      <c r="L2">
+        <v>1561</v>
+      </c>
+      <c r="M2">
+        <v>1257</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="O2">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="P2">
+        <v>0.252</v>
+      </c>
+      <c r="Q2">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="R2">
+        <v>0.24788010254387693</v>
+      </c>
+      <c r="S2">
+        <v>0.44606103619588361</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0.31867156800608443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>87.3352</v>
+      </c>
+      <c r="E3">
+        <v>12.6648</v>
+      </c>
+      <c r="F3">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="I3" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J3">
+        <v>19998</v>
+      </c>
+      <c r="K3">
+        <v>169</v>
+      </c>
+      <c r="L3">
+        <v>2742</v>
+      </c>
+      <c r="M3">
+        <v>76</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="O3">
+        <v>0.879</v>
+      </c>
+      <c r="P3">
+        <v>0.128</v>
+      </c>
+      <c r="Q3">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="R3">
+        <v>0.31020408163265306</v>
+      </c>
+      <c r="S3">
+        <v>2.6969481902058199E-2</v>
+      </c>
+      <c r="T3" s="3">
+        <v>4.9624551093698989E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>89.884699999999995</v>
+      </c>
+      <c r="E4">
+        <v>10.1153</v>
+      </c>
+      <c r="F4">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0.23</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="I4" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J4">
+        <v>20011</v>
+      </c>
+      <c r="K4">
+        <v>156</v>
+      </c>
+      <c r="L4">
+        <v>2169</v>
+      </c>
+      <c r="M4">
+        <v>649</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="O4">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="P4">
+        <v>0.434</v>
+      </c>
+      <c r="Q4">
+        <v>0.877</v>
+      </c>
+      <c r="R4">
+        <v>0.80621118012422355</v>
+      </c>
+      <c r="S4">
+        <v>0.23030518097941802</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.35826662986475288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5">
+        <v>90.110900000000001</v>
+      </c>
+      <c r="E5">
+        <v>9.8890999999999991</v>
+      </c>
+      <c r="F5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="G5">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="I5" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J5">
+        <v>20049</v>
+      </c>
+      <c r="K5">
+        <v>118</v>
+      </c>
+      <c r="L5">
+        <v>2155</v>
+      </c>
+      <c r="M5">
+        <v>663</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="P5">
+        <v>0.47</v>
+      </c>
+      <c r="Q5">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="R5">
+        <v>0.8489116517285531</v>
+      </c>
+      <c r="S5">
+        <v>0.23527324343506031</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.36843567657682685</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>67.483099999999993</v>
+      </c>
+      <c r="E6">
+        <v>32.5169</v>
+      </c>
+      <c r="F6">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="G6">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0.315</v>
+      </c>
+      <c r="J6">
+        <v>13817</v>
+      </c>
+      <c r="K6">
+        <v>6350</v>
+      </c>
+      <c r="L6">
+        <v>1124</v>
+      </c>
+      <c r="M6">
+        <v>1694</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="O6">
+        <v>0.94</v>
+      </c>
+      <c r="P6">
+        <v>0.254</v>
+      </c>
+      <c r="Q6">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="R6">
+        <v>0.21059174540029835</v>
+      </c>
+      <c r="S6">
+        <v>0.60113555713271827</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0.31191309151169211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>83.754599999999996</v>
+      </c>
+      <c r="E7">
+        <v>16.2454</v>
+      </c>
+      <c r="F7">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="G7">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="I7" s="3">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J7">
+        <v>18247</v>
+      </c>
+      <c r="K7">
+        <v>1920</v>
+      </c>
+      <c r="L7">
+        <v>1814</v>
+      </c>
+      <c r="M7">
+        <v>1004</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="O7">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="P7">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="Q7">
+        <v>0.86</v>
+      </c>
+      <c r="R7">
+        <v>0.34336525307797539</v>
+      </c>
+      <c r="S7">
+        <v>0.35628105039034774</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.34970393591083243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>25.716799999999999</v>
+      </c>
+      <c r="E8">
+        <v>74.283199999999994</v>
+      </c>
+      <c r="F8">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="J8">
+        <v>3281</v>
+      </c>
+      <c r="K8">
+        <v>16886</v>
+      </c>
+      <c r="L8">
+        <v>188</v>
+      </c>
+      <c r="M8">
+        <v>2630</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="O8">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="P8">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="Q8">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="R8">
+        <v>0.13476122156179546</v>
+      </c>
+      <c r="S8">
+        <v>0.93328601845280346</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0.23551535775051496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <v>84.450699999999998</v>
+      </c>
+      <c r="E9">
+        <v>15.549300000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="G9">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="I9" s="3">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="J9">
+        <v>18497</v>
+      </c>
+      <c r="K9">
+        <v>1670</v>
+      </c>
+      <c r="L9">
+        <v>1904</v>
+      </c>
+      <c r="M9">
+        <v>914</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="O9">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="P9">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="Q9">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="R9">
+        <v>0.35371517027863775</v>
+      </c>
+      <c r="S9">
+        <v>0.32434350603264728</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0.33839318770825622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14">
+        <v>169</v>
+      </c>
+      <c r="D14">
+        <v>2742</v>
+      </c>
+      <c r="F14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>1920</v>
+      </c>
+      <c r="D15">
+        <v>1814</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16">
+        <v>118</v>
+      </c>
+      <c r="D16">
+        <v>2155</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17">
+        <v>1670</v>
+      </c>
+      <c r="D17">
+        <v>1904</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>